--- a/vt_CANReg_ELC_V1p1.xlsx
+++ b/vt_CANReg_ELC_V1p1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/xiao_li8_mcgill_ca/Documents/Desktop/times/JRC-CAN-TIMES_2019_11 - Copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/xiao_li8_mcgill_ca/Documents/Desktop/times/CAN_TIMES_v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{68CB659D-FC65-4C87-A3F8-59E69D69EBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D1F5A1F-136C-4FD7-8C6B-C41BC2478C23}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{68CB659D-FC65-4C87-A3F8-59E69D69EBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51C2B17F-C63C-4559-A4FF-4F1875781DDA}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_ExistingStock" sheetId="4" r:id="rId1"/>
@@ -4785,7 +4785,7 @@
   <dimension ref="A2:AJ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4798,7 +4798,9 @@
     <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="29" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5.85546875" customWidth="1"/>
     <col min="31" max="31" width="4.28515625" customWidth="1"/>
     <col min="32" max="35" width="5.140625" bestFit="1" customWidth="1"/>
@@ -5603,13 +5605,34 @@
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
+      <c r="S21" s="7">
+        <f>SUM(J21:J27)</f>
+        <v>1.0000026177325201</v>
+      </c>
+      <c r="T21" s="7">
+        <f t="shared" ref="T21:Y21" si="0">SUM(K21:K27)</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.99911969158850145</v>
+      </c>
+      <c r="W21" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0000010047878141</v>
+      </c>
+      <c r="X21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.99582279872485435</v>
+      </c>
+      <c r="Y21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.99994649258922352</v>
+      </c>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
@@ -5685,7 +5708,7 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="17">
-        <f t="shared" ref="E23:E27" si="0">E22</f>
+        <f t="shared" ref="E23:E27" si="1">E22</f>
         <v>2016</v>
       </c>
       <c r="F23" s="14"/>
@@ -5743,7 +5766,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="F24" s="14"/>
@@ -5801,7 +5824,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="F25" s="14"/>
@@ -5859,7 +5882,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="F26" s="14"/>
@@ -5917,7 +5940,7 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="F27" s="14"/>
@@ -6087,7 +6110,7 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="17">
-        <f t="shared" ref="E30:E34" si="1">E29</f>
+        <f t="shared" ref="E30:E34" si="2">E29</f>
         <v>2017</v>
       </c>
       <c r="F30" s="14"/>
@@ -6143,7 +6166,7 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2017</v>
       </c>
       <c r="F31" s="14"/>
@@ -6199,7 +6222,7 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2017</v>
       </c>
       <c r="F32" s="14"/>
@@ -6255,7 +6278,7 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2017</v>
       </c>
       <c r="F33" s="14"/>
@@ -6311,7 +6334,7 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2017</v>
       </c>
       <c r="F34" s="14"/>
@@ -6479,7 +6502,7 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="17">
-        <f t="shared" ref="E37:E41" si="2">E36</f>
+        <f t="shared" ref="E37:E41" si="3">E36</f>
         <v>2018</v>
       </c>
       <c r="F37" s="14"/>
@@ -6535,7 +6558,7 @@
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2018</v>
       </c>
       <c r="F38" s="14"/>
@@ -6591,7 +6614,7 @@
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2018</v>
       </c>
       <c r="F39" s="14"/>
@@ -6647,7 +6670,7 @@
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2018</v>
       </c>
       <c r="F40" s="14"/>
@@ -6703,7 +6726,7 @@
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2018</v>
       </c>
       <c r="F41" s="14"/>
@@ -6871,7 +6894,7 @@
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="17">
-        <f t="shared" ref="E44:E48" si="3">E43</f>
+        <f t="shared" ref="E44:E48" si="4">E43</f>
         <v>2019</v>
       </c>
       <c r="F44" s="14"/>
@@ -6927,7 +6950,7 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="F45" s="14"/>
@@ -6963,7 +6986,7 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="F46" s="14"/>
@@ -6999,7 +7022,7 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="F47" s="14"/>
@@ -7035,7 +7058,7 @@
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="F48" s="14"/>
@@ -7143,7 +7166,7 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="17">
-        <f t="shared" ref="E51:E55" si="4">E50</f>
+        <f t="shared" ref="E51:E55" si="5">E50</f>
         <v>2020</v>
       </c>
       <c r="F51" s="14"/>
@@ -7179,7 +7202,7 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
       <c r="F52" s="14"/>
@@ -7215,7 +7238,7 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
       <c r="F53" s="14"/>
@@ -7251,7 +7274,7 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
       <c r="F54" s="14"/>
@@ -7287,7 +7310,7 @@
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
       <c r="F55" s="14"/>
@@ -7450,27 +7473,13 @@
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
-      <c r="J61" s="41">
-        <v>0.15</v>
-      </c>
-      <c r="K61" s="41">
-        <v>0.15</v>
-      </c>
-      <c r="L61" s="41">
-        <v>0.15</v>
-      </c>
-      <c r="M61" s="41">
-        <v>0.15</v>
-      </c>
-      <c r="N61" s="41">
-        <v>0.15</v>
-      </c>
-      <c r="O61" s="41">
-        <v>0.15</v>
-      </c>
-      <c r="P61" s="41">
-        <v>0.15</v>
-      </c>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
@@ -7485,27 +7494,13 @@
       </c>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
-      <c r="J62" s="41">
-        <v>1</v>
-      </c>
-      <c r="K62" s="41">
-        <v>1</v>
-      </c>
-      <c r="L62" s="41">
-        <v>1</v>
-      </c>
-      <c r="M62" s="41">
-        <v>1</v>
-      </c>
-      <c r="N62" s="41">
-        <v>1</v>
-      </c>
-      <c r="O62" s="41">
-        <v>1</v>
-      </c>
-      <c r="P62" s="41">
-        <v>1</v>
-      </c>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vt_CANReg_ELC_V1p1.xlsx
+++ b/vt_CANReg_ELC_V1p1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/xiao_li8_mcgill_ca/Documents/Desktop/times/CAN_TIMES_v1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/xiao_li8_mcgill_ca/Documents/Desktop/CAN_TIMES_v2 - Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{68CB659D-FC65-4C87-A3F8-59E69D69EBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51C2B17F-C63C-4559-A4FF-4F1875781DDA}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{68CB659D-FC65-4C87-A3F8-59E69D69EBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{963BE31A-5333-44D9-B67D-CEB9CD7AF2BE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,9 +566,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="168" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="36" x14ac:knownFonts="1">
     <font>
@@ -824,7 +825,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -973,6 +974,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,7 +1163,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="39"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="39" applyFont="1"/>
@@ -1203,6 +1210,10 @@
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="26" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="35" fillId="30" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - 1. jelölőszín" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4785,7 +4796,7 @@
   <dimension ref="A2:AJ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S61" sqref="S61"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4799,7 +4810,7 @@
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="16" width="6" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="25" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="29" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5.85546875" customWidth="1"/>
     <col min="31" max="31" width="4.28515625" customWidth="1"/>
@@ -4970,13 +4981,13 @@
       <c r="L9" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="44" t="s">
         <v>142</v>
       </c>
       <c r="N9" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="44" t="s">
         <v>113</v>
       </c>
       <c r="P9" s="40" t="s">
@@ -5078,25 +5089,25 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="16">
-        <v>31.04</v>
+        <v>100</v>
       </c>
       <c r="K11" s="16">
-        <v>31.04</v>
+        <v>100</v>
       </c>
       <c r="L11" s="16">
-        <v>31.04</v>
+        <v>100</v>
       </c>
       <c r="M11" s="16">
-        <v>31.04</v>
+        <v>100</v>
       </c>
       <c r="N11" s="16">
-        <v>31.04</v>
+        <v>100</v>
       </c>
       <c r="O11" s="16">
-        <v>31.04</v>
+        <v>100</v>
       </c>
       <c r="P11" s="16">
-        <v>31.04</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -5135,25 +5146,25 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="16">
-        <v>28.66</v>
+        <v>100</v>
       </c>
       <c r="K12" s="16">
-        <v>28.66</v>
+        <v>100</v>
       </c>
       <c r="L12" s="16">
-        <v>28.66</v>
+        <v>100</v>
       </c>
       <c r="M12" s="16">
-        <v>28.66</v>
+        <v>100</v>
       </c>
       <c r="N12" s="16">
-        <v>28.66</v>
+        <v>100</v>
       </c>
       <c r="O12" s="16">
-        <v>28.66</v>
+        <v>100</v>
       </c>
       <c r="P12" s="16">
-        <v>28.66</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -5192,25 +5203,25 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="16">
-        <v>32.83</v>
+        <v>100</v>
       </c>
       <c r="K13" s="16">
-        <v>32.83</v>
+        <v>100</v>
       </c>
       <c r="L13" s="16">
-        <v>32.83</v>
+        <v>100</v>
       </c>
       <c r="M13" s="16">
-        <v>32.83</v>
+        <v>100</v>
       </c>
       <c r="N13" s="16">
-        <v>32.83</v>
+        <v>100</v>
       </c>
       <c r="O13" s="16">
-        <v>32.83</v>
+        <v>100</v>
       </c>
       <c r="P13" s="16">
-        <v>32.83</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -5249,25 +5260,25 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="16">
-        <v>36.42</v>
+        <v>100</v>
       </c>
       <c r="K14" s="16">
-        <v>36.42</v>
+        <v>100</v>
       </c>
       <c r="L14" s="16">
-        <v>36.42</v>
+        <v>100</v>
       </c>
       <c r="M14" s="16">
-        <v>36.42</v>
+        <v>100</v>
       </c>
       <c r="N14" s="16">
-        <v>36.42</v>
+        <v>100</v>
       </c>
       <c r="O14" s="16">
-        <v>36.42</v>
+        <v>100</v>
       </c>
       <c r="P14" s="16">
-        <v>36.42</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -5306,25 +5317,25 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="16">
-        <v>36.08</v>
+        <v>100</v>
       </c>
       <c r="K15" s="16">
-        <v>36.08</v>
+        <v>100</v>
       </c>
       <c r="L15" s="16">
-        <v>36.08</v>
+        <v>100</v>
       </c>
       <c r="M15" s="16">
-        <v>36.08</v>
+        <v>100</v>
       </c>
       <c r="N15" s="16">
-        <v>36.08</v>
+        <v>100</v>
       </c>
       <c r="O15" s="16">
-        <v>36.08</v>
+        <v>100</v>
       </c>
       <c r="P15" s="16">
-        <v>36.08</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -5583,55 +5594,62 @@
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="41">
+        <f>1-SUM(J22:J27)</f>
+        <v>-2.6177325200826829E-6</v>
+      </c>
+      <c r="K21" s="41">
+        <f>1-SUM(K22:K27)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="41">
-        <v>0</v>
-      </c>
       <c r="L21" s="41">
-        <v>5.0800879396984924E-2</v>
+        <f>1-SUM(L22:L27)</f>
+        <v>5.0800879396984966E-2</v>
       </c>
       <c r="M21" s="41">
-        <v>0.13532465167106822</v>
+        <f>1-SUM(M22:M27)</f>
+        <v>0.13620496008256677</v>
       </c>
       <c r="N21" s="41">
-        <v>0.14757821017146705</v>
+        <f>1-SUM(N22:N27)</f>
+        <v>0.14757720538365304</v>
       </c>
       <c r="O21" s="41">
-        <v>3.3527536550511158E-3</v>
+        <f>1-SUM(O22:O27)</f>
+        <v>7.5299549301968138E-3</v>
       </c>
       <c r="P21" s="41">
-        <v>5.4042484884156458E-2</v>
+        <f>1-SUM(P22:P27)</f>
+        <v>5.4095992294932893E-2</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="7">
+      <c r="S21" s="45">
         <f>SUM(J21:J27)</f>
-        <v>1.0000026177325201</v>
-      </c>
-      <c r="T21" s="7">
+        <v>1</v>
+      </c>
+      <c r="T21" s="45">
         <f t="shared" ref="T21:Y21" si="0">SUM(K21:K27)</f>
         <v>1</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="45">
         <f t="shared" si="0"/>
-        <v>0.99911969158850145</v>
-      </c>
-      <c r="W21" s="7">
+        <v>1</v>
+      </c>
+      <c r="W21" s="45">
         <f t="shared" si="0"/>
-        <v>1.0000010047878141</v>
-      </c>
-      <c r="X21" s="7">
+        <v>1</v>
+      </c>
+      <c r="X21" s="45">
         <f t="shared" si="0"/>
-        <v>0.99582279872485435</v>
-      </c>
-      <c r="Y21" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="45">
         <f t="shared" si="0"/>
-        <v>0.99994649258922352</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
@@ -6008,35 +6026,63 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="41">
+        <f>1-SUM(J29:J34)</f>
         <v>0</v>
       </c>
       <c r="K28" s="41">
+        <f>1-SUM(K29:K34)</f>
         <v>0</v>
       </c>
       <c r="L28" s="41">
-        <v>9.3551475067444087E-2</v>
+        <f>1-SUM(L29:L34)</f>
+        <v>9.3551475067444101E-2</v>
       </c>
       <c r="M28" s="41">
-        <v>0.12634494513689143</v>
+        <f>1-SUM(M29:M34)</f>
+        <v>0.12748126842086571</v>
       </c>
       <c r="N28" s="41">
-        <v>0.17015144784990588</v>
+        <f>1-SUM(N29:N34)</f>
+        <v>0.17015303424498174</v>
       </c>
       <c r="O28" s="41">
-        <v>2.3043656681082103E-3</v>
+        <f>1-SUM(O29:O34)</f>
+        <v>1.0502225449035563E-2</v>
       </c>
       <c r="P28" s="41">
-        <v>3.6184401275732095E-2</v>
+        <f>1-SUM(P29:P34)</f>
+        <v>3.6184401275732081E-2</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
+      <c r="S28" s="45">
+        <f>SUM(J28:J34)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="T28" s="45">
+        <f t="shared" ref="T28" si="2">SUM(K28:K34)</f>
+        <v>1</v>
+      </c>
+      <c r="U28" s="45">
+        <f t="shared" ref="U28" si="3">SUM(L28:L34)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="V28" s="45">
+        <f t="shared" ref="V28" si="4">SUM(M28:M34)</f>
+        <v>1</v>
+      </c>
+      <c r="W28" s="45">
+        <f t="shared" ref="W28" si="5">SUM(N28:N34)</f>
+        <v>1</v>
+      </c>
+      <c r="X28" s="45">
+        <f t="shared" ref="X28" si="6">SUM(O28:O34)</f>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="45">
+        <f t="shared" ref="Y28" si="7">SUM(P28:P34)</f>
+        <v>0.99999999999999989</v>
+      </c>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
@@ -6110,7 +6156,7 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="17">
-        <f t="shared" ref="E30:E34" si="2">E29</f>
+        <f t="shared" ref="E30:E34" si="8">E29</f>
         <v>2017</v>
       </c>
       <c r="F30" s="14"/>
@@ -6166,7 +6212,7 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2017</v>
       </c>
       <c r="F31" s="14"/>
@@ -6222,7 +6268,7 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2017</v>
       </c>
       <c r="F32" s="14"/>
@@ -6278,7 +6324,7 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2017</v>
       </c>
       <c r="F33" s="14"/>
@@ -6334,7 +6380,7 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2017</v>
       </c>
       <c r="F34" s="14"/>
@@ -6400,25 +6446,32 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="41">
+        <f>1-SUM(J36:J41)</f>
         <v>0</v>
       </c>
       <c r="K35" s="41">
+        <f>1-SUM(K36:K41)</f>
         <v>0</v>
       </c>
       <c r="L35" s="41">
-        <v>3.7538045316198851E-2</v>
+        <f>1-SUM(L36:L41)</f>
+        <v>3.7538045316199087E-2</v>
       </c>
       <c r="M35" s="41">
-        <v>9.2698099842936782E-2</v>
+        <f>1-SUM(M36:M41)</f>
+        <v>9.3560407748452423E-2</v>
       </c>
       <c r="N35" s="41">
-        <v>0.16995531353903612</v>
+        <f>1-SUM(N36:N41)</f>
+        <v>0.16996239859513451</v>
       </c>
       <c r="O35" s="41">
-        <v>2.5613266087507591E-3</v>
+        <f>1-SUM(O36:O41)</f>
+        <v>2.0807478017480396E-2</v>
       </c>
       <c r="P35" s="41">
-        <v>3.8260126108795554E-2</v>
+        <f>1-SUM(P36:P41)</f>
+        <v>3.8313562039115068E-2</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
@@ -6502,7 +6555,7 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="17">
-        <f t="shared" ref="E37:E41" si="3">E36</f>
+        <f t="shared" ref="E37:E41" si="9">E36</f>
         <v>2018</v>
       </c>
       <c r="F37" s="14"/>
@@ -6558,7 +6611,7 @@
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2018</v>
       </c>
       <c r="F38" s="14"/>
@@ -6614,7 +6667,7 @@
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2018</v>
       </c>
       <c r="F39" s="14"/>
@@ -6670,7 +6723,7 @@
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2018</v>
       </c>
       <c r="F40" s="14"/>
@@ -6726,7 +6779,7 @@
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2018</v>
       </c>
       <c r="F41" s="14"/>
@@ -6792,25 +6845,32 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="41">
+        <f>1-SUM(J43:J48)</f>
+        <v>4.7021206565078799E-6</v>
+      </c>
+      <c r="K42" s="41">
+        <f>1-SUM(K43:K48)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="41">
-        <v>0</v>
-      </c>
       <c r="L42" s="41">
-        <v>3.5425255764238814E-2</v>
+        <f>1-SUM(L43:L48)</f>
+        <v>3.5425255764238939E-2</v>
       </c>
       <c r="M42" s="41">
-        <v>9.0171616948385644E-2</v>
+        <f>1-SUM(M43:M48)</f>
+        <v>9.1108884651433297E-2</v>
       </c>
       <c r="N42" s="41">
-        <v>9.4359749322192113E-2</v>
+        <f>1-SUM(N43:N48)</f>
+        <v>9.4359193741944014E-2</v>
       </c>
       <c r="O42" s="41">
-        <v>2.6090197540067092E-3</v>
+        <f>1-SUM(O43:O48)</f>
+        <v>1.7453809701293732E-2</v>
       </c>
       <c r="P42" s="41">
-        <v>3.5617131650534567E-2</v>
+        <f>1-SUM(P43:P48)</f>
+        <v>3.5617131650534706E-2</v>
       </c>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
@@ -6894,7 +6954,7 @@
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="17">
-        <f t="shared" ref="E44:E48" si="4">E43</f>
+        <f t="shared" ref="E44:E48" si="10">E43</f>
         <v>2019</v>
       </c>
       <c r="F44" s="14"/>
@@ -6950,7 +7010,7 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
       <c r="F45" s="14"/>
@@ -6986,7 +7046,7 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
       <c r="F46" s="14"/>
@@ -7022,7 +7082,7 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
       <c r="F47" s="14"/>
@@ -7058,7 +7118,7 @@
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
       <c r="F48" s="14"/>
@@ -7104,25 +7164,32 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="41">
+        <f>1-SUM(J50:J55)</f>
+        <v>4.7176487236733067E-6</v>
+      </c>
+      <c r="K49" s="41">
+        <f>1-SUM(K50:K55)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="41">
-        <v>0</v>
-      </c>
       <c r="L49" s="41">
-        <v>3.5588086824835934E-2</v>
+        <f>1-SUM(L50:L55)</f>
+        <v>3.5461887935386183E-2</v>
       </c>
       <c r="M49" s="41">
-        <v>8.7592649783817172E-2</v>
+        <f>1-SUM(M50:M55)</f>
+        <v>8.9831686226065521E-2</v>
       </c>
       <c r="N49" s="41">
-        <v>9.6491875468959501E-2</v>
+        <f>1-SUM(N50:N55)</f>
+        <v>9.6497410728563104E-2</v>
       </c>
       <c r="O49" s="41">
-        <v>1.9158080049707451E-3</v>
+        <f>1-SUM(O50:O55)</f>
+        <v>1.3669549008439752E-2</v>
       </c>
       <c r="P49" s="41">
-        <v>4.2977570374830645E-2</v>
+        <f>1-SUM(P50:P55)</f>
+        <v>4.297757037483052E-2</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
@@ -7166,7 +7233,7 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="17">
-        <f t="shared" ref="E51:E55" si="5">E50</f>
+        <f t="shared" ref="E51:E55" si="11">E50</f>
         <v>2020</v>
       </c>
       <c r="F51" s="14"/>
@@ -7202,7 +7269,7 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="F52" s="14"/>
@@ -7238,7 +7305,7 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="F53" s="14"/>
@@ -7274,7 +7341,7 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="F54" s="14"/>
@@ -7310,7 +7377,7 @@
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="F55" s="14"/>

--- a/vt_CANReg_ELC_V1p1.xlsx
+++ b/vt_CANReg_ELC_V1p1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/xiao_li8_mcgill_ca/Documents/Desktop/CAN_TIMES_v2 - Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{68CB659D-FC65-4C87-A3F8-59E69D69EBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{963BE31A-5333-44D9-B67D-CEB9CD7AF2BE}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{68CB659D-FC65-4C87-A3F8-59E69D69EBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62C19956-2464-425E-AF63-EB218FF6106A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_ExistingStock" sheetId="4" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="164">
   <si>
     <t>~FI_T</t>
   </si>
@@ -517,9 +517,6 @@
     <t>~FI_T: Share-I~UP</t>
   </si>
   <si>
-    <t>ACT_BND</t>
-  </si>
-  <si>
     <t>LO</t>
   </si>
   <si>
@@ -560,6 +557,9 @@
   </si>
   <si>
     <t>*assumes same parameters for concentrated solar and PV</t>
+  </si>
+  <si>
+    <t>*delete ACT_BND because it makes the running unsolvable</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="168" formatCode="0.00000%"/>
+    <numFmt numFmtId="165" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="36" x14ac:knownFonts="1">
     <font>
@@ -1213,7 +1213,7 @@
     <xf numFmtId="1" fontId="35" fillId="30" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - 1. jelölőszín" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>1</v>
@@ -1712,7 +1712,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
@@ -3610,34 +3610,34 @@
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E33" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E34" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E35" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="E36" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q36"/>
     </row>
     <row r="37" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="E37" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q37"/>
     </row>
     <row r="38" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="E38" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q38"/>
     </row>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="C39" s="26"/>
       <c r="E39" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q39"/>
     </row>
@@ -3659,7 +3659,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q40"/>
     </row>
@@ -4795,8 +4795,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:AJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5053,9 +5053,11 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="T10" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
@@ -5076,10 +5078,10 @@
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="E11" s="14">
         <v>2016</v>
@@ -5088,27 +5090,13 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="16">
-        <v>100</v>
-      </c>
-      <c r="K11" s="16">
-        <v>100</v>
-      </c>
-      <c r="L11" s="16">
-        <v>100</v>
-      </c>
-      <c r="M11" s="16">
-        <v>100</v>
-      </c>
-      <c r="N11" s="16">
-        <v>100</v>
-      </c>
-      <c r="O11" s="16">
-        <v>100</v>
-      </c>
-      <c r="P11" s="16">
-        <v>100</v>
-      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -5133,10 +5121,10 @@
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="E12" s="14">
         <v>2017</v>
@@ -5145,27 +5133,13 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="16">
-        <v>100</v>
-      </c>
-      <c r="K12" s="16">
-        <v>100</v>
-      </c>
-      <c r="L12" s="16">
-        <v>100</v>
-      </c>
-      <c r="M12" s="16">
-        <v>100</v>
-      </c>
-      <c r="N12" s="16">
-        <v>100</v>
-      </c>
-      <c r="O12" s="16">
-        <v>100</v>
-      </c>
-      <c r="P12" s="16">
-        <v>100</v>
-      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -5190,10 +5164,10 @@
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="E13" s="14">
         <v>2018</v>
@@ -5202,27 +5176,13 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="16">
-        <v>100</v>
-      </c>
-      <c r="K13" s="16">
-        <v>100</v>
-      </c>
-      <c r="L13" s="16">
-        <v>100</v>
-      </c>
-      <c r="M13" s="16">
-        <v>100</v>
-      </c>
-      <c r="N13" s="16">
-        <v>100</v>
-      </c>
-      <c r="O13" s="16">
-        <v>100</v>
-      </c>
-      <c r="P13" s="16">
-        <v>100</v>
-      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
@@ -5247,10 +5207,10 @@
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="E14" s="14">
         <v>2019</v>
@@ -5259,27 +5219,13 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="16">
-        <v>100</v>
-      </c>
-      <c r="K14" s="16">
-        <v>100</v>
-      </c>
-      <c r="L14" s="16">
-        <v>100</v>
-      </c>
-      <c r="M14" s="16">
-        <v>100</v>
-      </c>
-      <c r="N14" s="16">
-        <v>100</v>
-      </c>
-      <c r="O14" s="16">
-        <v>100</v>
-      </c>
-      <c r="P14" s="16">
-        <v>100</v>
-      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -5304,10 +5250,10 @@
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="E15" s="14">
         <v>2020</v>
@@ -5316,27 +5262,13 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="16">
-        <v>100</v>
-      </c>
-      <c r="K15" s="16">
-        <v>100</v>
-      </c>
-      <c r="L15" s="16">
-        <v>100</v>
-      </c>
-      <c r="M15" s="16">
-        <v>100</v>
-      </c>
-      <c r="N15" s="16">
-        <v>100</v>
-      </c>
-      <c r="O15" s="16">
-        <v>100</v>
-      </c>
-      <c r="P15" s="16">
-        <v>100</v>
-      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -5402,7 +5334,7 @@
     <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14">
@@ -5539,7 +5471,7 @@
     <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -5594,31 +5526,31 @@
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="41">
-        <f>1-SUM(J22:J27)</f>
+        <f t="shared" ref="J21:P21" si="0">1-SUM(J22:J27)</f>
         <v>-2.6177325200826829E-6</v>
       </c>
       <c r="K21" s="41">
-        <f>1-SUM(K22:K27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21" s="41">
-        <f>1-SUM(L22:L27)</f>
+        <f t="shared" si="0"/>
         <v>5.0800879396984966E-2</v>
       </c>
       <c r="M21" s="41">
-        <f>1-SUM(M22:M27)</f>
+        <f t="shared" si="0"/>
         <v>0.13620496008256677</v>
       </c>
       <c r="N21" s="41">
-        <f>1-SUM(N22:N27)</f>
+        <f t="shared" si="0"/>
         <v>0.14757720538365304</v>
       </c>
       <c r="O21" s="41">
-        <f>1-SUM(O22:O27)</f>
+        <f t="shared" si="0"/>
         <v>7.5299549301968138E-3</v>
       </c>
       <c r="P21" s="41">
-        <f>1-SUM(P22:P27)</f>
+        <f t="shared" si="0"/>
         <v>5.4095992294932893E-2</v>
       </c>
       <c r="Q21" s="7"/>
@@ -5628,27 +5560,27 @@
         <v>1</v>
       </c>
       <c r="T21" s="45">
-        <f t="shared" ref="T21:Y21" si="0">SUM(K21:K27)</f>
+        <f t="shared" ref="T21:Y21" si="1">SUM(K21:K27)</f>
         <v>1</v>
       </c>
       <c r="U21" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V21" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W21" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X21" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Y21" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Z21" s="7"/>
@@ -5726,7 +5658,7 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="17">
-        <f t="shared" ref="E23:E27" si="1">E22</f>
+        <f t="shared" ref="E23:E27" si="2">E22</f>
         <v>2016</v>
       </c>
       <c r="F23" s="14"/>
@@ -5784,7 +5716,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016</v>
       </c>
       <c r="F24" s="14"/>
@@ -5842,7 +5774,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016</v>
       </c>
       <c r="F25" s="14"/>
@@ -5900,7 +5832,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016</v>
       </c>
       <c r="F26" s="14"/>
@@ -5958,7 +5890,7 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016</v>
       </c>
       <c r="F27" s="14"/>
@@ -6026,31 +5958,31 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="41">
-        <f>1-SUM(J29:J34)</f>
+        <f t="shared" ref="J28:P28" si="3">1-SUM(J29:J34)</f>
         <v>0</v>
       </c>
       <c r="K28" s="41">
-        <f>1-SUM(K29:K34)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L28" s="41">
-        <f>1-SUM(L29:L34)</f>
+        <f t="shared" si="3"/>
         <v>9.3551475067444101E-2</v>
       </c>
       <c r="M28" s="41">
-        <f>1-SUM(M29:M34)</f>
+        <f t="shared" si="3"/>
         <v>0.12748126842086571</v>
       </c>
       <c r="N28" s="41">
-        <f>1-SUM(N29:N34)</f>
+        <f t="shared" si="3"/>
         <v>0.17015303424498174</v>
       </c>
       <c r="O28" s="41">
-        <f>1-SUM(O29:O34)</f>
+        <f t="shared" si="3"/>
         <v>1.0502225449035563E-2</v>
       </c>
       <c r="P28" s="41">
-        <f>1-SUM(P29:P34)</f>
+        <f t="shared" si="3"/>
         <v>3.6184401275732081E-2</v>
       </c>
       <c r="Q28" s="7"/>
@@ -6060,27 +5992,27 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="T28" s="45">
-        <f t="shared" ref="T28" si="2">SUM(K28:K34)</f>
+        <f t="shared" ref="T28" si="4">SUM(K28:K34)</f>
         <v>1</v>
       </c>
       <c r="U28" s="45">
-        <f t="shared" ref="U28" si="3">SUM(L28:L34)</f>
+        <f t="shared" ref="U28" si="5">SUM(L28:L34)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="V28" s="45">
-        <f t="shared" ref="V28" si="4">SUM(M28:M34)</f>
+        <f t="shared" ref="V28" si="6">SUM(M28:M34)</f>
         <v>1</v>
       </c>
       <c r="W28" s="45">
-        <f t="shared" ref="W28" si="5">SUM(N28:N34)</f>
+        <f t="shared" ref="W28" si="7">SUM(N28:N34)</f>
         <v>1</v>
       </c>
       <c r="X28" s="45">
-        <f t="shared" ref="X28" si="6">SUM(O28:O34)</f>
+        <f t="shared" ref="X28" si="8">SUM(O28:O34)</f>
         <v>1</v>
       </c>
       <c r="Y28" s="45">
-        <f t="shared" ref="Y28" si="7">SUM(P28:P34)</f>
+        <f t="shared" ref="Y28" si="9">SUM(P28:P34)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="Z28" s="7"/>
@@ -6156,7 +6088,7 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="17">
-        <f t="shared" ref="E30:E34" si="8">E29</f>
+        <f t="shared" ref="E30:E34" si="10">E29</f>
         <v>2017</v>
       </c>
       <c r="F30" s="14"/>
@@ -6212,7 +6144,7 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2017</v>
       </c>
       <c r="F31" s="14"/>
@@ -6268,7 +6200,7 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2017</v>
       </c>
       <c r="F32" s="14"/>
@@ -6324,7 +6256,7 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2017</v>
       </c>
       <c r="F33" s="14"/>
@@ -6380,7 +6312,7 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2017</v>
       </c>
       <c r="F34" s="14"/>
@@ -6446,31 +6378,31 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="41">
-        <f>1-SUM(J36:J41)</f>
+        <f t="shared" ref="J35:P35" si="11">1-SUM(J36:J41)</f>
         <v>0</v>
       </c>
       <c r="K35" s="41">
-        <f>1-SUM(K36:K41)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L35" s="41">
-        <f>1-SUM(L36:L41)</f>
+        <f t="shared" si="11"/>
         <v>3.7538045316199087E-2</v>
       </c>
       <c r="M35" s="41">
-        <f>1-SUM(M36:M41)</f>
+        <f t="shared" si="11"/>
         <v>9.3560407748452423E-2</v>
       </c>
       <c r="N35" s="41">
-        <f>1-SUM(N36:N41)</f>
+        <f t="shared" si="11"/>
         <v>0.16996239859513451</v>
       </c>
       <c r="O35" s="41">
-        <f>1-SUM(O36:O41)</f>
+        <f t="shared" si="11"/>
         <v>2.0807478017480396E-2</v>
       </c>
       <c r="P35" s="41">
-        <f>1-SUM(P36:P41)</f>
+        <f t="shared" si="11"/>
         <v>3.8313562039115068E-2</v>
       </c>
       <c r="Q35" s="7"/>
@@ -6555,7 +6487,7 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="17">
-        <f t="shared" ref="E37:E41" si="9">E36</f>
+        <f t="shared" ref="E37:E41" si="12">E36</f>
         <v>2018</v>
       </c>
       <c r="F37" s="14"/>
@@ -6611,7 +6543,7 @@
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="F38" s="14"/>
@@ -6667,7 +6599,7 @@
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="F39" s="14"/>
@@ -6723,7 +6655,7 @@
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="F40" s="14"/>
@@ -6779,7 +6711,7 @@
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="F41" s="14"/>
@@ -6845,31 +6777,31 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="41">
-        <f>1-SUM(J43:J48)</f>
+        <f t="shared" ref="J42:P42" si="13">1-SUM(J43:J48)</f>
         <v>4.7021206565078799E-6</v>
       </c>
       <c r="K42" s="41">
-        <f>1-SUM(K43:K48)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L42" s="41">
-        <f>1-SUM(L43:L48)</f>
+        <f t="shared" si="13"/>
         <v>3.5425255764238939E-2</v>
       </c>
       <c r="M42" s="41">
-        <f>1-SUM(M43:M48)</f>
+        <f t="shared" si="13"/>
         <v>9.1108884651433297E-2</v>
       </c>
       <c r="N42" s="41">
-        <f>1-SUM(N43:N48)</f>
+        <f t="shared" si="13"/>
         <v>9.4359193741944014E-2</v>
       </c>
       <c r="O42" s="41">
-        <f>1-SUM(O43:O48)</f>
+        <f t="shared" si="13"/>
         <v>1.7453809701293732E-2</v>
       </c>
       <c r="P42" s="41">
-        <f>1-SUM(P43:P48)</f>
+        <f t="shared" si="13"/>
         <v>3.5617131650534706E-2</v>
       </c>
       <c r="Q42" s="7"/>
@@ -6954,7 +6886,7 @@
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="17">
-        <f t="shared" ref="E44:E48" si="10">E43</f>
+        <f t="shared" ref="E44:E48" si="14">E43</f>
         <v>2019</v>
       </c>
       <c r="F44" s="14"/>
@@ -7010,7 +6942,7 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2019</v>
       </c>
       <c r="F45" s="14"/>
@@ -7046,7 +6978,7 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2019</v>
       </c>
       <c r="F46" s="14"/>
@@ -7082,7 +7014,7 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2019</v>
       </c>
       <c r="F47" s="14"/>
@@ -7118,7 +7050,7 @@
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2019</v>
       </c>
       <c r="F48" s="14"/>
@@ -7164,31 +7096,31 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="41">
-        <f>1-SUM(J50:J55)</f>
+        <f t="shared" ref="J49:P49" si="15">1-SUM(J50:J55)</f>
         <v>4.7176487236733067E-6</v>
       </c>
       <c r="K49" s="41">
-        <f>1-SUM(K50:K55)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L49" s="41">
-        <f>1-SUM(L50:L55)</f>
+        <f t="shared" si="15"/>
         <v>3.5461887935386183E-2</v>
       </c>
       <c r="M49" s="41">
-        <f>1-SUM(M50:M55)</f>
+        <f t="shared" si="15"/>
         <v>8.9831686226065521E-2</v>
       </c>
       <c r="N49" s="41">
-        <f>1-SUM(N50:N55)</f>
+        <f t="shared" si="15"/>
         <v>9.6497410728563104E-2</v>
       </c>
       <c r="O49" s="41">
-        <f>1-SUM(O50:O55)</f>
+        <f t="shared" si="15"/>
         <v>1.3669549008439752E-2</v>
       </c>
       <c r="P49" s="41">
-        <f>1-SUM(P50:P55)</f>
+        <f t="shared" si="15"/>
         <v>4.297757037483052E-2</v>
       </c>
     </row>
@@ -7233,7 +7165,7 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="17">
-        <f t="shared" ref="E51:E55" si="11">E50</f>
+        <f t="shared" ref="E51:E55" si="16">E50</f>
         <v>2020</v>
       </c>
       <c r="F51" s="14"/>
@@ -7269,7 +7201,7 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2020</v>
       </c>
       <c r="F52" s="14"/>
@@ -7305,7 +7237,7 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2020</v>
       </c>
       <c r="F53" s="14"/>
@@ -7341,7 +7273,7 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2020</v>
       </c>
       <c r="F54" s="14"/>
@@ -7377,7 +7309,7 @@
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2020</v>
       </c>
       <c r="F55" s="14"/>
